--- a/biology/Biologie cellulaire et moléculaire/Pamela_Bjorkman/Pamela_Bjorkman.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Pamela_Bjorkman/Pamela_Bjorkman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pamela Jane Bjorkman (également orthographié Pamela J. Björkman, née en 1956[1] à Portland dans l'Oregon[2]) est une biochimiste américaine. Elle est professeure de biologie à l'Institut de Technologie de Californie (Caltech), Professeure associée de biochimie à l'Université de Californie du Sud et chercheuse au Howard Hughes Medical Institute (HHMI)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pamela Jane Bjorkman (également orthographié Pamela J. Björkman, née en 1956 à Portland dans l'Oregon) est une biochimiste américaine. Elle est professeure de biologie à l'Institut de Technologie de Californie (Caltech), Professeure associée de biochimie à l'Université de Californie du Sud et chercheuse au Howard Hughes Medical Institute (HHMI).
 </t>
         </is>
       </c>
@@ -511,12 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bjorkman a obtenu un Baccalauréat ès Sciences en chimie à l'Université de l'Oregon, sous la direction de Hayes Griffith et Patricia Jost. Elle a obtenu son Doctorat en biochimie à l'Université Harvard en 1984, où elle a travaillé dans le laboratoire de Don Wiley. Elle a effectué ses recherches postdoctorales au sein de ce même laboratoire. Elle y a résolu le problème de la première structure cristalline dela protéine HLA-A2). Ce travail a été publié en 1987[4],[5]. Bjorkman poursuit ses recherches postdoctorales à l'Université Stanford, au sein du laboratoire de Mark Davis. Elle y étudie les récepteurs des lymphocytes T qui reconnaissent les antigènes. En 1989, elle rejoint la faculté de Biologie à l'Institut de Technologie de Californie en tant que professeure associée. Elle devient professeure titulaire en 1998, et chercheuse au  Howard Hughes Medical Institute en 1999.
-Elle effectue des recherches en biologie structurale pour étudier les interactions des protéines impliquées dans la reconnaissance immunitaire. Elle utilise des techniques telles que la cristallographie aux rayons X, la microscopie confocale et la microscopie électronique[6]. Ses recherches se focalisent plus précisément sur l'étude de la structure des protéines liées au Complexe majeur d'histocompatibilité de classe I[7]. 
-Vie privée
-Bjorkman est mariée au neurobiologiste Kai George Zinn, également professeur à Caltech. Bjorkman et Zinn, ont deux enfants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bjorkman a obtenu un Baccalauréat ès Sciences en chimie à l'Université de l'Oregon, sous la direction de Hayes Griffith et Patricia Jost. Elle a obtenu son Doctorat en biochimie à l'Université Harvard en 1984, où elle a travaillé dans le laboratoire de Don Wiley. Elle a effectué ses recherches postdoctorales au sein de ce même laboratoire. Elle y a résolu le problème de la première structure cristalline dela protéine HLA-A2). Ce travail a été publié en 1987,. Bjorkman poursuit ses recherches postdoctorales à l'Université Stanford, au sein du laboratoire de Mark Davis. Elle y étudie les récepteurs des lymphocytes T qui reconnaissent les antigènes. En 1989, elle rejoint la faculté de Biologie à l'Institut de Technologie de Californie en tant que professeure associée. Elle devient professeure titulaire en 1998, et chercheuse au  Howard Hughes Medical Institute en 1999.
+Elle effectue des recherches en biologie structurale pour étudier les interactions des protéines impliquées dans la reconnaissance immunitaire. Elle utilise des techniques telles que la cristallographie aux rayons X, la microscopie confocale et la microscopie électronique. Ses recherches se focalisent plus précisément sur l'étude de la structure des protéines liées au Complexe majeur d'histocompatibilité de classe I. 
 </t>
         </is>
       </c>
@@ -542,21 +554,60 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bjorkman est mariée au neurobiologiste Kai George Zinn, également professeur à Caltech. Bjorkman et Zinn, ont deux enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pamela_Bjorkman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pamela_Bjorkman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1989 : Bourse de Chercheuse en Sciences Biomédicales par The Pew Charitable Trusts
 1993 : Prix William Coley de l'institut de recherche sur le cancer
 1994 : Prix Gairdner (conjointement avec Don Wiley)
-1994 : Prix James Klinenberg[8]
-1996 : Prix de l'association américaine d'immunologie[9]
+1994 : Prix James Klinenberg
+1996 : Prix de l'association américaine d'immunologie
 1996 : Prix Paul-Ehrlich-et-Ludwig-Darmstaedter
-1997 : membre de l'Académie américaine des arts et des sciences[1]
-2001 : membre de la Académie nationale des sciences[10]
+1997 : membre de l'Académie américaine des arts et des sciences
+2001 : membre de la Académie nationale des sciences
 2002 : Bourse de recherche de la société Max Planck
-2004 : Prix Rose Payne[11]
+2004 : Prix Rose Payne
 2006 : Prix L'Oréal-Unesco pour les femmes et la science
 2010 : Prix du National Institutes of Health</t>
         </is>
